--- a/Certificate Details1.xlsx
+++ b/Certificate Details1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUiPath\UIPath Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E163BB6-D176-424A-A173-A60403E9D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25123608-282E-4F7D-A2D7-D0D661549BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17136" windowHeight="8964" xr2:uid="{026EA293-405C-4D01-A4DD-88518E064EDB}"/>
+    <workbookView xWindow="3372" yWindow="2088" windowWidth="17136" windowHeight="8964" xr2:uid="{026EA293-405C-4D01-A4DD-88518E064EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Student name</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>200701258@rajalakshmi.edu.in</t>
+  </si>
+  <si>
+    <t>Not Sent</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +552,7 @@
         <v>45039</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -575,7 +578,7 @@
         <v>45039</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -627,7 +630,7 @@
         <v>45039</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
